--- a/src/TaxCalculator.Specs/TaxCalculation_ExcelFeature.feature.xlsx
+++ b/src/TaxCalculator.Specs/TaxCalculation_ExcelFeature.feature.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="6750" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="8610" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Emplyee without children" sheetId="6" r:id="rId1"/>
@@ -13,8 +13,8 @@
     <sheet name="_Taxes2013" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlcn.WorksheetConnection_TaxCalculation.feature.xlsxTable4" hidden="1">[0]!Table4</definedName>
-    <definedName name="_xlcn.WorksheetConnection_TaxCalculation.feature.xlsxTable5" hidden="1">[0]!Table5</definedName>
+    <definedName name="_xlcn.WorksheetConnection_TaxCalculation.feature.xlsxTable41" hidden="1">[0]!Table4</definedName>
+    <definedName name="_xlcn.WorksheetConnection_TaxCalculation.feature.xlsxTable51" hidden="1">[0]!Table5</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -48,7 +48,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Table4-f70e2b63-73bb-4417-bff9-6eef45bf972c">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_TaxCalculation.feature.xlsxTable4"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_TaxCalculation.feature.xlsxTable41"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -57,7 +57,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Table5-3d9ae4cd-538f-4ccd-92fa-7604e76ab7a4">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_TaxCalculation.feature.xlsxTable5"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_TaxCalculation.feature.xlsxTable51"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -818,7 +818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -906,7 +906,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
